--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2085116.196544866</v>
+        <v>2045152.913605672</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914458</v>
+        <v>426806.9758914463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478708</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7576827.648364018</v>
+        <v>7576827.64836402</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9608827844484</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>190.1066023865956</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>42.45773507521466</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>24.09264407212915</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>236.9046075187036</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>81.94696239689884</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281.6241949500874</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>69.22567051886652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1469,7 +1469,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1508,13 +1508,13 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>25.94935617649208</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>180.0616529903309</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>10.07566248204319</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>148.2421731387154</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>367.0014406673554</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>230.4008363852267</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>70.09267063964604</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>203.6375059840414</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>13.08993799274005</v>
       </c>
       <c r="W16" t="n">
-        <v>74.15307578127785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>151.9166470735639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>85.16480783628987</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>41.16551806305293</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1940,7 +1940,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>14.31742697697815</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.58123699316305</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>81.02828297723633</v>
       </c>
       <c r="U19" t="n">
         <v>286.2872966473816</v>
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>97.59167940800685</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>119.9028374420587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>125.7035822286312</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.46056895511748</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>171.8582649431798</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>290.3483785352673</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>54.82207108555792</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.64690839405421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>74.15307578127785</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>36.4562349562207</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>58.28272660856686</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>124.0722024138719</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>20.17002628298199</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>220.8871739987542</v>
+        <v>218.7001066064055</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>102.6777393509273</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>220.2810445897353</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G30" t="n">
-        <v>123.3277290573763</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8871739987542</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>47.23959131629378</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>102.7113352232391</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>127.4349622981231</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>83.29896986725154</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>174.1280585853899</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>171.8582649431798</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>295.8661172175869</v>
       </c>
       <c r="F35" t="n">
-        <v>234.2809929452684</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3353,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>135.9035971193933</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>7.353154002015169</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>119.7809561473938</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.0308288438515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>103.1176049972532</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>135.8388224458439</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3599,10 +3599,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>64.75880519958775</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3638,13 +3638,13 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957288909827</v>
+        <v>213.6660840949156</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.808971012945</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>48.28789286870568</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
@@ -3796,13 +3796,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>110.2974122401143</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>3.12075101063162</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.64690839405421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3836,10 +3836,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.31742697697815</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3942,31 +3942,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>167.3283684174596</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>73.66757925108482</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
@@ -3997,7 +3997,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>28.03808446728809</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.9552220120416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
@@ -4076,7 +4076,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>86.9175696398748</v>
+        <v>64.42655098606885</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4179,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>171.85826494318</v>
       </c>
       <c r="T46" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>141.8557190765649</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>226.7653248291326</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3080142077841</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3080142077841</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.701031422288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>660.701031422288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>660.701031422288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>660.701031422288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W3" t="n">
-        <v>660.701031422288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X3" t="n">
-        <v>660.701031422288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>660.701031422288</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4518,16 +4518,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>462.9476827596951</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.1872303756613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>278.1872303756613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>278.1872303756613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>278.1872303756613</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>278.1872303756613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>278.1872303756613</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>881.2824460188192</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>828.7681742625825</v>
+        <v>1224.685340725807</v>
       </c>
       <c r="C11" t="n">
-        <v>459.8056573221708</v>
+        <v>1224.685340725807</v>
       </c>
       <c r="D11" t="n">
-        <v>459.8056573221708</v>
+        <v>866.4196421190563</v>
       </c>
       <c r="E11" t="n">
-        <v>459.8056573221708</v>
+        <v>866.4196421190563</v>
       </c>
       <c r="F11" t="n">
-        <v>48.81975253256327</v>
+        <v>866.4196421190563</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>448.2319761896301</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>118.7446722485901</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5047,7 +5047,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5071,22 +5071,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U11" t="n">
-        <v>2187.207932640046</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V11" t="n">
-        <v>1856.145045296475</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W11" t="n">
-        <v>1503.376390026361</v>
+        <v>1614.824672701619</v>
       </c>
       <c r="X11" t="n">
-        <v>1503.376390026361</v>
+        <v>1614.824672701619</v>
       </c>
       <c r="Y11" t="n">
-        <v>1113.23705805055</v>
+        <v>1224.685340725807</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>748.1556141834751</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C12" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D12" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E12" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F12" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225003</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M12" t="n">
         <v>1034.670495654875</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X12" t="n">
-        <v>1124.131249968497</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y12" t="n">
-        <v>916.3709512035432</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>374.8233198089292</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>205.8871368810223</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F13" t="n">
         <v>48.81975253256327</v>
@@ -5220,31 +5220,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="R13" t="n">
-        <v>487.9764913965091</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="S13" t="n">
-        <v>487.9764913965091</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="T13" t="n">
-        <v>487.9764913965091</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="U13" t="n">
-        <v>487.9764913965091</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="V13" t="n">
-        <v>338.2369225695239</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>374.8233198089292</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>374.8233198089292</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>951.3892161671761</v>
+        <v>621.901912226136</v>
       </c>
       <c r="C14" t="n">
-        <v>951.3892161671761</v>
+        <v>621.901912226136</v>
       </c>
       <c r="D14" t="n">
-        <v>951.3892161671761</v>
+        <v>621.901912226136</v>
       </c>
       <c r="E14" t="n">
-        <v>951.3892161671761</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
         <v>210.9160074365284</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977594</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540049</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2259.7089786956</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2005.929284707482</v>
+        <v>1738.275657733142</v>
       </c>
       <c r="V14" t="n">
-        <v>1674.866397363912</v>
+        <v>1738.275657733142</v>
       </c>
       <c r="W14" t="n">
-        <v>1322.097742093798</v>
+        <v>1385.507002463028</v>
       </c>
       <c r="X14" t="n">
-        <v>1322.097742093798</v>
+        <v>1012.041244201948</v>
       </c>
       <c r="Y14" t="n">
-        <v>1322.097742093798</v>
+        <v>621.901912226136</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>850.7452172829803</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C15" t="n">
-        <v>676.2921880018533</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D15" t="n">
-        <v>527.3577783406021</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E15" t="n">
-        <v>368.1203233351466</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F15" t="n">
-        <v>221.5857653620315</v>
+        <v>359.61565291287</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>221.5857653620316</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>114.9862139017799</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T15" t="n">
-        <v>2152.139322163765</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U15" t="n">
-        <v>1923.961818233479</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V15" t="n">
-        <v>1688.809710001737</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W15" t="n">
-        <v>1434.572353273535</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X15" t="n">
-        <v>1226.720853068002</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y15" t="n">
-        <v>1018.960554303048</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="16">
@@ -5451,28 +5451,28 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T16" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U16" t="n">
-        <v>123.7218492813288</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V16" t="n">
-        <v>123.7218492813288</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W16" t="n">
         <v>48.81975253256327</v>
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1375.209346660811</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="C17" t="n">
-        <v>1006.246829720399</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="D17" t="n">
-        <v>852.7956710602338</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="E17" t="n">
-        <v>467.0074184619895</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
         <v>412.307967997759</v>
@@ -5545,22 +5545,22 @@
         <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2371.897027894854</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U17" t="n">
-        <v>2118.117333906737</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V17" t="n">
-        <v>2118.117333906737</v>
+        <v>1812.477670817928</v>
       </c>
       <c r="W17" t="n">
-        <v>1765.348678636623</v>
+        <v>1812.477670817928</v>
       </c>
       <c r="X17" t="n">
-        <v>1765.348678636623</v>
+        <v>1812.477670817928</v>
       </c>
       <c r="Y17" t="n">
-        <v>1375.209346660811</v>
+        <v>1812.477670817928</v>
       </c>
     </row>
     <row r="18">
@@ -5573,19 +5573,19 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D18" t="n">
-        <v>547.7315422628061</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>129.4482613532729</v>
       </c>
       <c r="H18" t="n">
         <v>114.9862139017798</v>
@@ -5594,25 +5594,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.84120404080878</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
         <v>48.81975253256327</v>
@@ -5694,31 +5694,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>602.8128707069466</v>
+        <v>558.7914191987011</v>
       </c>
       <c r="U19" t="n">
-        <v>313.6337831843389</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="V19" t="n">
-        <v>313.6337831843389</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="W19" t="n">
-        <v>313.6337831843389</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X19" t="n">
-        <v>313.6337831843389</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.84120404080878</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>776.0479680797255</v>
+        <v>1133.057826012259</v>
       </c>
       <c r="C20" t="n">
-        <v>407.0854511393138</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="D20" t="n">
-        <v>48.81975253256327</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5752,10 +5752,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
         <v>795.0052981540048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U20" t="n">
-        <v>1967.593327971733</v>
+        <v>1872.426321346495</v>
       </c>
       <c r="V20" t="n">
-        <v>1636.530440628162</v>
+        <v>1872.426321346495</v>
       </c>
       <c r="W20" t="n">
-        <v>1283.761785358048</v>
+        <v>1519.657666076381</v>
       </c>
       <c r="X20" t="n">
-        <v>1283.761785358048</v>
+        <v>1519.657666076381</v>
       </c>
       <c r="Y20" t="n">
-        <v>1162.647808143847</v>
+        <v>1519.657666076381</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D21" t="n">
-        <v>547.7315422628061</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E21" t="n">
-        <v>388.4940872573506</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F21" t="n">
-        <v>241.9595292842356</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,19 +5834,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
         <v>2283.899498973758</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F22" t="n">
         <v>48.81975253256327</v>
@@ -5931,31 +5931,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4139595458762</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>222.4139595458762</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V22" t="n">
-        <v>222.4139595458762</v>
+        <v>564.4153727563969</v>
       </c>
       <c r="W22" t="n">
-        <v>222.4139595458762</v>
+        <v>564.4153727563969</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>564.4153727563969</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.32352461901</v>
+        <v>1605.221538798759</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.361007678598</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D23" t="n">
-        <v>764.0953090718475</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E23" t="n">
-        <v>378.3070564736033</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>378.3070564736033</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5989,13 +5989,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6016,25 +6016,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2190.61837996229</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U23" t="n">
-        <v>1936.838685974173</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V23" t="n">
-        <v>1936.838685974173</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="W23" t="n">
-        <v>1936.838685974173</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="X23" t="n">
-        <v>1881.462856594821</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="Y23" t="n">
-        <v>1491.32352461901</v>
+        <v>1898.502729238423</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,25 +6068,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6168,31 +6168,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>602.8128707069466</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U25" t="n">
-        <v>313.6337831843389</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="V25" t="n">
-        <v>313.6337831843389</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="W25" t="n">
-        <v>276.8093034305806</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>123.7218492813288</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>269.7874484552829</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C26" t="n">
-        <v>269.7874484552829</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D26" t="n">
-        <v>269.7874484552829</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="E26" t="n">
-        <v>269.7874484552829</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="F26" t="n">
-        <v>210.9160074365284</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="G26" t="n">
-        <v>210.9160074365284</v>
+        <v>503.6325134573123</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>174.1452095162723</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V26" t="n">
-        <v>1386.161193962289</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.392538692174</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X26" t="n">
-        <v>659.9267804310946</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y26" t="n">
-        <v>269.7874484552829</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="27">
@@ -6287,40 +6287,40 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>527.3577783406021</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>368.1203233351466</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
         <v>2283.899498973758</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D28" t="n">
         <v>48.81975253256327</v>
@@ -6408,28 +6408,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>487.9764913965091</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>271.9381101070625</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>271.9381101070625</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U28" t="n">
-        <v>271.9381101070625</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>419.7289710884291</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>419.7289710884291</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>419.7289710884291</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1706.139985705832</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="C29" t="n">
-        <v>1337.17746876542</v>
+        <v>1367.496464083101</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.17746876542</v>
+        <v>1367.496464083101</v>
       </c>
       <c r="E29" t="n">
-        <v>951.3892161671761</v>
+        <v>981.708211484857</v>
       </c>
       <c r="F29" t="n">
-        <v>540.4033113775685</v>
+        <v>570.7223066952495</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>152.5346407658232</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6466,7 +6466,7 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>2037.202873049403</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>1706.139985705832</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W29" t="n">
-        <v>1706.139985705832</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X29" t="n">
-        <v>1706.139985705832</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="Y29" t="n">
-        <v>1706.139985705832</v>
+        <v>1736.458981023513</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>239.5596775960993</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
@@ -6545,22 +6545,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593126</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6645,22 +6645,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>487.9764913965091</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>271.9381101070625</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V31" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W31" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="X31" t="n">
         <v>48.81975253256327</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>845.5939099204151</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C32" t="n">
-        <v>845.5939099204151</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D32" t="n">
-        <v>845.5939099204151</v>
+        <v>563.5544807799881</v>
       </c>
       <c r="E32" t="n">
         <v>459.8056573221708</v>
@@ -6700,13 +6700,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>1588.501897166341</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>1235.733241896227</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X32" t="n">
-        <v>1235.733241896227</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y32" t="n">
-        <v>845.5939099204151</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="33">
@@ -6767,10 +6767,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F33" t="n">
-        <v>239.5596775960993</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6782,13 +6782,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D34" t="n">
         <v>48.81975253256327</v>
@@ -6882,28 +6882,28 @@
         <v>602.8128707069466</v>
       </c>
       <c r="R34" t="n">
-        <v>450.1511924226977</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="S34" t="n">
-        <v>450.1511924226977</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="T34" t="n">
-        <v>222.4139595458762</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="U34" t="n">
-        <v>222.4139595458762</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="V34" t="n">
-        <v>222.4139595458762</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="W34" t="n">
-        <v>48.81975253256327</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1012.695435701209</v>
+        <v>705.9401149954622</v>
       </c>
       <c r="C35" t="n">
-        <v>643.732918760797</v>
+        <v>705.9401149954622</v>
       </c>
       <c r="D35" t="n">
-        <v>285.4672201540465</v>
+        <v>347.6744163887117</v>
       </c>
       <c r="E35" t="n">
-        <v>285.4672201540465</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F35" t="n">
         <v>48.81975253256327</v>
@@ -6937,13 +6937,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V35" t="n">
-        <v>1386.161193962289</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W35" t="n">
-        <v>1386.161193962289</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X35" t="n">
-        <v>1012.695435701209</v>
+        <v>1482.679287035396</v>
       </c>
       <c r="Y35" t="n">
-        <v>1012.695435701209</v>
+        <v>1092.539955059584</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>930.0360717494659</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>755.5830424683389</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>606.6486328070877</v>
       </c>
       <c r="E36" t="n">
-        <v>261.5207718748949</v>
+        <v>447.4111778016322</v>
       </c>
       <c r="F36" t="n">
-        <v>114.9862139017798</v>
+        <v>300.8766198285172</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>162.8467322776788</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>56.24718081742708</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7058,10 +7058,10 @@
         <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>1098.251408769534</v>
       </c>
     </row>
     <row r="37">
@@ -7116,31 +7116,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>450.1511924226977</v>
+        <v>519.6473048854107</v>
       </c>
       <c r="T37" t="n">
-        <v>450.1511924226977</v>
+        <v>519.6473048854107</v>
       </c>
       <c r="U37" t="n">
-        <v>160.97210490009</v>
+        <v>230.468217362803</v>
       </c>
       <c r="V37" t="n">
-        <v>160.97210490009</v>
+        <v>230.468217362803</v>
       </c>
       <c r="W37" t="n">
-        <v>160.97210490009</v>
+        <v>230.468217362803</v>
       </c>
       <c r="X37" t="n">
-        <v>160.97210490009</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>897.0329007044804</v>
+        <v>1177.300509919041</v>
       </c>
       <c r="C38" t="n">
-        <v>792.873703737558</v>
+        <v>1177.300509919041</v>
       </c>
       <c r="D38" t="n">
-        <v>434.6080051308075</v>
+        <v>1177.300509919041</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256327</v>
+        <v>1177.300509919041</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>766.3146051294334</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>348.1269392000071</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977595</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540051</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7192,7 +7192,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
@@ -7201,25 +7201,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U38" t="n">
-        <v>1971.003775293977</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V38" t="n">
-        <v>1639.940887950406</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W38" t="n">
-        <v>1287.172232680292</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="X38" t="n">
-        <v>1287.172232680292</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="Y38" t="n">
-        <v>897.0329007044804</v>
+        <v>1177.300509919041</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E39" t="n">
-        <v>398.7971326015548</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F39" t="n">
-        <v>252.2625746284398</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
-        <v>114.2326870776014</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>114.2326870776014</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7286,19 +7286,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1807.754349056116</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256327</v>
@@ -7341,43 +7341,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>554.0372213446176</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1323.932475581935</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C41" t="n">
-        <v>954.9699586415231</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D41" t="n">
-        <v>596.7042600347727</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9160074365284</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F41" t="n">
-        <v>210.9160074365284</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U41" t="n">
-        <v>1717.224081305859</v>
+        <v>1928.682846512019</v>
       </c>
       <c r="V41" t="n">
-        <v>1717.224081305859</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="W41" t="n">
-        <v>1714.071807557747</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="X41" t="n">
-        <v>1714.071807557747</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="Y41" t="n">
-        <v>1323.932475581935</v>
+        <v>1207.480627192637</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>641.5560627232235</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D42" t="n">
-        <v>492.6216530619722</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E42" t="n">
-        <v>333.3841980565167</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F42" t="n">
-        <v>186.8496400834017</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256327</v>
+        <v>129.4482613532729</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
@@ -7499,10 +7499,10 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O42" t="n">
         <v>1970.07121469245</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>217.7559354604702</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
         <v>48.81975253256327</v>
@@ -7590,31 +7590,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>386.7744894175001</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>386.7744894175001</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>217.7559354604702</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>217.7559354604702</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W43" t="n">
-        <v>217.7559354604702</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X43" t="n">
-        <v>217.7559354604702</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.7559354604702</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.480627192637</v>
+        <v>1210.604272442979</v>
       </c>
       <c r="C44" t="n">
-        <v>1207.480627192637</v>
+        <v>1210.604272442979</v>
       </c>
       <c r="D44" t="n">
-        <v>1207.480627192637</v>
+        <v>1210.604272442979</v>
       </c>
       <c r="E44" t="n">
-        <v>1207.480627192637</v>
+        <v>824.8160198447347</v>
       </c>
       <c r="F44" t="n">
-        <v>796.4947224030295</v>
+        <v>824.8160198447347</v>
       </c>
       <c r="G44" t="n">
-        <v>378.3070564736033</v>
+        <v>406.6283539153084</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>77.14104997426841</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7654,7 +7654,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U44" t="n">
-        <v>2187.207932640046</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V44" t="n">
-        <v>2187.207932640046</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="W44" t="n">
-        <v>1834.439277369932</v>
+        <v>1584.070030704059</v>
       </c>
       <c r="X44" t="n">
-        <v>1834.439277369932</v>
+        <v>1210.604272442979</v>
       </c>
       <c r="Y44" t="n">
-        <v>1594.080467256759</v>
+        <v>1210.604272442979</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>842.2405468607036</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C45" t="n">
-        <v>667.7875175795766</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D45" t="n">
-        <v>518.8531079183253</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E45" t="n">
-        <v>359.6156529128699</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7733,10 +7733,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1218.216182645725</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y45" t="n">
-        <v>1010.455883880772</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="46">
@@ -7827,28 +7827,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q46" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="R46" t="n">
-        <v>640.6381696807582</v>
+        <v>450.1511924226979</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>276.5569854093848</v>
       </c>
       <c r="T46" t="n">
-        <v>412.9009368039367</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="U46" t="n">
-        <v>269.6123316760934</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V46" t="n">
-        <v>269.6123316760934</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W46" t="n">
-        <v>269.6123316760934</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X46" t="n">
-        <v>269.6123316760934</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y46" t="n">
         <v>48.81975253256327</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443506</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>340.4824716403222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.9802256040019</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617109</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>61.27660229194304</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302594</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,10 +9968,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>203.8252941185861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302594</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730269</v>
       </c>
       <c r="L30" t="n">
-        <v>180.8033201453156</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443506</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>275.6680385918564</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11302,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928321</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.1096467133931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>91.24962183605898</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>206.8512309729332</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>25.71133221314659</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>138.5398105361692</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
         <v>213.8779974765521</v>
@@ -23475,13 +23475,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>103.8954701851126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.73240099612519</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,7 +23512,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>20.84106066300959</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>127.2750392816566</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>48.05747717687825</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23706,16 +23706,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>239.047705331088</v>
       </c>
       <c r="W16" t="n">
-        <v>212.3699225553132</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>202.7663945471191</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>242.587450633845</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>91.21612896867103</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.6655841054648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,7 +23943,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>144.431577570817</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>153.6502176402294</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.3351012139948</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.94600644669883</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>176.6770743687105</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>53.85139044585736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>92.38546312821325</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>314.9090295929111</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>71.2679722416534</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24417,7 +24417,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>250.0667633803703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>348.5933191331446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>36.40308994105357</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,10 +24648,10 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
@@ -24660,7 +24660,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>31.25046932507379</v>
+        <v>33.43753671742246</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>223.5146915507022</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>30.96085245850094</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G30" t="n">
-        <v>13.32185961795371</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>4.572686549299078</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>178.4700640727434</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>279.2190348490226</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>200.3172961720118</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>53.35061880807845</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>51.33180196266338</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>114.6647333934112</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>86.06425285467486</v>
       </c>
       <c r="F35" t="n">
-        <v>172.595052796443</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>21.7414833360076</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>58.15164275350924</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>94.09704132915832</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.5538245082433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>262.1552867737544</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>190.3536084557857</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.745991555936655</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>12.22964479606705</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>11.62499163362415</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>102.8471686327007</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>140.944484808122</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>346.1202177067814</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>91.21612896867103</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>118.958928229922</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>144.91707410101</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>132.4372078876374</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.282716644012</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>118.8554155636027</v>
+        <v>141.3464342174086</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>42.01973253337212</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>144.4315775708167</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>586200.1482046852</v>
+        <v>586200.1482046853</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>586200.1482046852</v>
+        <v>586200.1482046853</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>406713.5901862448</v>
+      </c>
+      <c r="F2" t="n">
         <v>406713.5901862447</v>
       </c>
-      <c r="F2" t="n">
-        <v>406713.5901862449</v>
-      </c>
       <c r="G2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862446</v>
       </c>
       <c r="H2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="I2" t="n">
-        <v>406713.590186245</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="J2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="K2" t="n">
-        <v>406713.5901862448</v>
+        <v>406713.5901862446</v>
       </c>
       <c r="L2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="M2" t="n">
         <v>406713.5901862449</v>
       </c>
       <c r="N2" t="n">
-        <v>406713.5901862452</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="O2" t="n">
-        <v>406713.590186245</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="P2" t="n">
         <v>406713.5901862449</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109306</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>44379.07056643641</v>
       </c>
       <c r="G4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="H4" t="n">
         <v>44379.07056643641</v>
       </c>
       <c r="I4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="J4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="K4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="L4" t="n">
         <v>44379.07056643641</v>
       </c>
       <c r="M4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="N4" t="n">
         <v>44379.07056643641</v>
       </c>
       <c r="O4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="P4" t="n">
         <v>44379.07056643641</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165767.6741125476</v>
+        <v>165767.6741125478</v>
       </c>
       <c r="C6" t="n">
-        <v>246537.1056440953</v>
+        <v>246537.1056440956</v>
       </c>
       <c r="D6" t="n">
-        <v>246537.1056440952</v>
+        <v>246537.1056440956</v>
       </c>
       <c r="E6" t="n">
-        <v>-51236.81753331014</v>
+        <v>-58205.74210704234</v>
       </c>
       <c r="F6" t="n">
-        <v>318198.4815994701</v>
+        <v>311229.5570257377</v>
       </c>
       <c r="G6" t="n">
-        <v>318198.4815994701</v>
+        <v>311229.5570257376</v>
       </c>
       <c r="H6" t="n">
-        <v>318198.4815994701</v>
+        <v>311229.5570257377</v>
       </c>
       <c r="I6" t="n">
-        <v>318198.4815994701</v>
+        <v>311229.5570257377</v>
       </c>
       <c r="J6" t="n">
-        <v>255138.5390003638</v>
+        <v>248169.6144266314</v>
       </c>
       <c r="K6" t="n">
-        <v>318198.48159947</v>
+        <v>311229.5570257376</v>
       </c>
       <c r="L6" t="n">
-        <v>318198.4815994701</v>
+        <v>311229.5570257377</v>
       </c>
       <c r="M6" t="n">
-        <v>226184.2363183771</v>
+        <v>219215.3117446448</v>
       </c>
       <c r="N6" t="n">
-        <v>318198.4815994704</v>
+        <v>311229.5570257379</v>
       </c>
       <c r="O6" t="n">
-        <v>318198.4815994701</v>
+        <v>311229.5570257379</v>
       </c>
       <c r="P6" t="n">
-        <v>318198.4815994701</v>
+        <v>311229.5570257378</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445108</v>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>20.36928718381029</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,19 +27435,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>6.684197670952528</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>191.8237676856662</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,13 +27666,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>366.4657846212724</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>104.9873304894241</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>201.8487380088457</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>132.8264931597655</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>89.73620870693898</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="11">
@@ -31992,10 +31992,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093283</v>
@@ -32004,31 +32004,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L14" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N14" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P14" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q14" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S14" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K15" t="n">
         <v>112.0542330627269</v>
@@ -32098,19 +32098,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
@@ -32162,31 +32162,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U16" t="n">
         <v>0.03173270910929617</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P40" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>48.64100594280298</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>374.1740901080622</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M14" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O14" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q14" t="n">
         <v>130.0651205780292</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009465</v>
@@ -35737,7 +35737,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
-        <v>497.1177477436266</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,13 +35816,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O16" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009465</v>
@@ -35974,7 +35974,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36217,7 +36217,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q21" t="n">
         <v>158.6748764185921</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009465</v>
@@ -36448,7 +36448,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009465</v>
@@ -36688,10 +36688,10 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>226.3322895077443</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q27" t="n">
         <v>158.6748764185921</v>
@@ -36913,10 +36913,10 @@
         <v>64.8144330484658</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>207.3158823613949</v>
       </c>
       <c r="L30" t="n">
-        <v>192.9196850695264</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
         <v>499.3966822177399</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>48.64100594280298</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37563,7 +37563,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q38" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>309.3596570595964</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P42" t="n">
         <v>316.9982669508155</v>
@@ -38022,10 +38022,10 @@
         <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537828</v>
       </c>
       <c r="M44" t="n">
-        <v>446.9000637909527</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
         <v>439.3515785419015</v>
@@ -38101,13 +38101,13 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2045152.913605672</v>
+        <v>2080471.66893144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478708</v>
+        <v>8362709.48847871</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7576827.64836402</v>
+        <v>7576827.648364018</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G2" t="n">
-        <v>40.47627913313511</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,70 +901,70 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.60023339142367</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.265316057196634</v>
-      </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>42.45773507521466</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>28.31997202364538</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>200.3360962888296</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>75.36552815884851</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>69.22567051886652</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>146.5641089999878</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1508,10 +1508,10 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V12" t="n">
-        <v>25.94935617649208</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.07566248204319</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.1902553182235</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>150.4151997635623</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.4008363852267</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>83.29896986725154</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>203.6375059840414</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>142.558195406707</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>13.08993799274005</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>4.584585076699824</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>85.16480783628987</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H18" t="n">
-        <v>14.31742697697815</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>81.02828297723633</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>116.1776229325296</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>108.3755171921632</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>97.59167940800685</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>135.5974673951712</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.46056895511748</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>51.45328550777773</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.3483785352673</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>75.46400677166021</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>43.76331341951682</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2453,7 +2453,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8957288909827</v>
+        <v>27.47589768952058</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>74.15307578127785</v>
+        <v>94.18945793067249</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>124.0722024138719</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>276.9096834232042</v>
       </c>
     </row>
     <row r="27">
@@ -2636,22 +2636,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>131.9337482422543</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>218.7001066064055</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>114.19908422361</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6777393509273</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>52.1829371375707</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.64958867533</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>114.2132421252752</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>47.23959131629378</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>102.7113352232391</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>20.81616447162401</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>120.7648547300515</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.15307578127806</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>174.1280585853899</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>295.8661172175869</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>206.4710391508598</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>7.353154002015169</v>
+        <v>56.02127570389403</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>119.7809561473938</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>179.7864942438957</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>135.8388224458439</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>213.6660840949156</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>7.262864575842115</v>
       </c>
     </row>
     <row r="40">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>134.808971012945</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>34.93754938280726</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>110.2974122401143</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>292.9723939345389</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>14.31742697697815</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>13.36157114809456</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>110.5642120303527</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>28.03808446728809</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,7 +4073,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>64.42655098606885</v>
+        <v>112.8867099476644</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>112.031731753632</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>171.85826494318</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4309,16 +4309,16 @@
         <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>72.23626279480629</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="4">
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.9119902784999</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4589609973729</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>300.7412691199202</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>162.0104437025357</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>48.64130811011499</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4688,10 +4688,10 @@
         <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.1273272985679</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
         <v>41.77557929797318</v>
@@ -4764,13 +4764,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
         <v>41.77557929797318</v>
@@ -5007,7 +5007,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1224.685340725807</v>
+        <v>1343.758323044779</v>
       </c>
       <c r="C11" t="n">
-        <v>1224.685340725807</v>
+        <v>974.7958061043678</v>
       </c>
       <c r="D11" t="n">
-        <v>866.4196421190563</v>
+        <v>616.5301074976173</v>
       </c>
       <c r="E11" t="n">
-        <v>866.4196421190563</v>
+        <v>616.5301074976173</v>
       </c>
       <c r="F11" t="n">
-        <v>866.4196421190563</v>
+        <v>616.5301074976173</v>
       </c>
       <c r="G11" t="n">
-        <v>448.2319761896301</v>
+        <v>540.4033113775683</v>
       </c>
       <c r="H11" t="n">
-        <v>118.7446722485901</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1614.824672701619</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X11" t="n">
-        <v>1614.824672701619</v>
+        <v>1343.758323044779</v>
       </c>
       <c r="Y11" t="n">
-        <v>1224.685340725807</v>
+        <v>1343.758323044779</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1406371339194</v>
+        <v>161.1406371339188</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593126</v>
+        <v>540.2677802593121</v>
       </c>
       <c r="M12" t="n">
         <v>1034.670495654875</v>
@@ -5138,25 +5138,25 @@
         <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521037</v>
+        <v>2235.293176139233</v>
       </c>
       <c r="T12" t="n">
-        <v>2081.228572368206</v>
+        <v>2035.931852986402</v>
       </c>
       <c r="U12" t="n">
-        <v>1853.051068437921</v>
+        <v>1807.754349056116</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.839597552575</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="W12" t="n">
         <v>1572.602240824373</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374.8233198089292</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>205.8871368810223</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
         <v>48.81975253256327</v>
@@ -5202,49 +5202,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>602.8128707069466</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T13" t="n">
-        <v>602.8128707069466</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U13" t="n">
-        <v>602.8128707069466</v>
+        <v>230.468217362803</v>
       </c>
       <c r="V13" t="n">
-        <v>602.8128707069466</v>
+        <v>230.468217362803</v>
       </c>
       <c r="W13" t="n">
-        <v>602.8128707069466</v>
+        <v>230.468217362803</v>
       </c>
       <c r="X13" t="n">
-        <v>374.8233198089292</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y13" t="n">
-        <v>374.8233198089292</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>621.901912226136</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="C14" t="n">
-        <v>621.901912226136</v>
+        <v>1388.193567074067</v>
       </c>
       <c r="D14" t="n">
-        <v>621.901912226136</v>
+        <v>1029.927868467317</v>
       </c>
       <c r="E14" t="n">
-        <v>621.901912226136</v>
+        <v>1029.927868467317</v>
       </c>
       <c r="F14" t="n">
-        <v>210.9160074365284</v>
+        <v>618.9419636777091</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>200.7542977482828</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977594</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N14" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O14" t="n">
         <v>2037.925350935285</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>1738.275657733142</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.275657733142</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W14" t="n">
-        <v>1385.507002463028</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X14" t="n">
-        <v>1012.041244201948</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y14" t="n">
-        <v>621.901912226136</v>
+        <v>1757.156084014479</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>359.61565291287</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620316</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017799</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5360,10 +5360,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
         <v>1158.640861843456</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2241.626303475332</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>2013.448799545047</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1778.296691313304</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H16" t="n">
         <v>48.81975253256327</v>
@@ -5439,49 +5439,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801509</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807579</v>
+        <v>496.6399925022662</v>
       </c>
       <c r="U16" t="n">
-        <v>351.4590821581502</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="V16" t="n">
-        <v>338.2369225695239</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.877830753807</v>
+        <v>1906.940323425486</v>
       </c>
       <c r="C17" t="n">
-        <v>1425.877830753807</v>
+        <v>1537.977806485074</v>
       </c>
       <c r="D17" t="n">
-        <v>1425.877830753807</v>
+        <v>1179.712107878324</v>
       </c>
       <c r="E17" t="n">
-        <v>1040.089578155562</v>
+        <v>793.9238552800794</v>
       </c>
       <c r="F17" t="n">
-        <v>629.1036733659547</v>
+        <v>382.9379504904718</v>
       </c>
       <c r="G17" t="n">
-        <v>210.9160074365284</v>
+        <v>382.9379504904718</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>53.45064654943178</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5518,16 +5518,16 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T17" t="n">
-        <v>2152.282423226541</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U17" t="n">
-        <v>1898.502729238423</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V17" t="n">
-        <v>1812.477670817928</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W17" t="n">
-        <v>1812.477670817928</v>
+        <v>1906.940323425486</v>
       </c>
       <c r="X17" t="n">
-        <v>1812.477670817928</v>
+        <v>1906.940323425486</v>
       </c>
       <c r="Y17" t="n">
-        <v>1812.477670817928</v>
+        <v>1906.940323425486</v>
       </c>
     </row>
     <row r="18">
@@ -5573,22 +5573,22 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>722.1845715439331</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>573.2501618826818</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>414.0127068772263</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F18" t="n">
-        <v>267.4781489041113</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G18" t="n">
-        <v>129.4482613532729</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,10 +5597,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
         <v>1158.640861843456</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>523.2870354054758</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5676,49 +5676,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K19" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L19" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>558.7914191987011</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>269.6123316760934</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>269.6123316760934</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>269.6123316760934</v>
+        <v>523.2870354054758</v>
       </c>
       <c r="X19" t="n">
-        <v>269.6123316760934</v>
+        <v>523.2870354054758</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>523.2870354054758</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1133.057826012259</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="C20" t="n">
-        <v>764.0953090718475</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D20" t="n">
-        <v>764.0953090718475</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E20" t="n">
-        <v>378.3070564736033</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>378.3070564736033</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977595</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540052</v>
       </c>
       <c r="M20" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N20" t="n">
         <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
-        <v>2037.925350935285</v>
+        <v>2037.925350935286</v>
       </c>
       <c r="P20" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q20" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2262.426808508831</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2262.426808508831</v>
       </c>
       <c r="U20" t="n">
-        <v>1872.426321346495</v>
+        <v>2008.647114520714</v>
       </c>
       <c r="V20" t="n">
-        <v>1872.426321346495</v>
+        <v>2008.647114520714</v>
       </c>
       <c r="W20" t="n">
-        <v>1519.657666076381</v>
+        <v>2008.647114520714</v>
       </c>
       <c r="X20" t="n">
-        <v>1519.657666076381</v>
+        <v>2008.647114520714</v>
       </c>
       <c r="Y20" t="n">
-        <v>1519.657666076381</v>
+        <v>2008.647114520714</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>461.1913169713855</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960993</v>
+        <v>301.95386196593</v>
       </c>
       <c r="F21" t="n">
-        <v>93.02511962298431</v>
+        <v>155.419303992815</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256327</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K21" t="n">
         <v>285.1110033225003</v>
@@ -5849,34 +5849,34 @@
         <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S21" t="n">
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2085.972860794548</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>343.6227936128668</v>
+        <v>367.8725748728059</v>
       </c>
       <c r="C22" t="n">
-        <v>343.6227936128668</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D22" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E22" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K22" t="n">
         <v>93.687719323712</v>
@@ -5946,16 +5946,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="V22" t="n">
-        <v>564.4153727563969</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W22" t="n">
-        <v>564.4153727563969</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X22" t="n">
-        <v>564.4153727563969</v>
+        <v>588.665154016336</v>
       </c>
       <c r="Y22" t="n">
-        <v>343.6227936128668</v>
+        <v>367.8725748728059</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1605.221538798759</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C23" t="n">
-        <v>1236.259021858348</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D23" t="n">
-        <v>877.9933232515971</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9933232515971</v>
+        <v>536.0319267884943</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>125.0460219988867</v>
       </c>
       <c r="G23" t="n">
         <v>48.81975253256327</v>
@@ -5989,13 +5989,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>1898.502729238423</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>1898.502729238423</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>1898.502729238423</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X23" t="n">
-        <v>1898.502729238423</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y23" t="n">
-        <v>1898.502729238423</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G24" t="n">
-        <v>93.02511962298431</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,25 +6068,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>318.2287647883253</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L24" t="n">
-        <v>697.3559079137186</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M24" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N24" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6101,19 +6101,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.7218492813288</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C25" t="n">
-        <v>123.7218492813288</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="D25" t="n">
-        <v>123.7218492813288</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="E25" t="n">
-        <v>123.7218492813288</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>123.7218492813288</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>123.7218492813288</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W25" t="n">
-        <v>123.7218492813288</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X25" t="n">
-        <v>123.7218492813288</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.7218492813288</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1290.78269632715</v>
+        <v>1365.955863431131</v>
       </c>
       <c r="C26" t="n">
-        <v>921.8201793867386</v>
+        <v>1365.955863431131</v>
       </c>
       <c r="D26" t="n">
-        <v>921.8201793867386</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="E26" t="n">
-        <v>921.8201793867386</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F26" t="n">
-        <v>921.8201793867386</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G26" t="n">
-        <v>503.6325134573123</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H26" t="n">
-        <v>174.1452095162723</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W26" t="n">
-        <v>2440.987626628164</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="X26" t="n">
-        <v>2067.521868367084</v>
+        <v>1645.66261436366</v>
       </c>
       <c r="Y26" t="n">
-        <v>1677.382536391272</v>
+        <v>1365.955863431131</v>
       </c>
     </row>
     <row r="27">
@@ -6284,19 +6284,19 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6308,19 +6308,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
         <v>2283.899498973758</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C28" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V28" t="n">
-        <v>419.7289710884291</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W28" t="n">
-        <v>419.7289710884291</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X28" t="n">
-        <v>419.7289710884291</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y28" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1736.458981023513</v>
+        <v>1130.244536291078</v>
       </c>
       <c r="C29" t="n">
-        <v>1367.496464083101</v>
+        <v>1130.244536291078</v>
       </c>
       <c r="D29" t="n">
-        <v>1367.496464083101</v>
+        <v>1130.244536291078</v>
       </c>
       <c r="E29" t="n">
-        <v>981.708211484857</v>
+        <v>744.4562836928335</v>
       </c>
       <c r="F29" t="n">
-        <v>570.7223066952495</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G29" t="n">
-        <v>152.5346407658232</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6466,7 +6466,7 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6475,7 +6475,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
@@ -6493,22 +6493,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V29" t="n">
-        <v>2109.924739284593</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W29" t="n">
-        <v>2109.924739284593</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="X29" t="n">
-        <v>1736.458981023513</v>
+        <v>1516.8443763552</v>
       </c>
       <c r="Y29" t="n">
-        <v>1736.458981023513</v>
+        <v>1516.8443763552</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F30" t="n">
         <v>186.8496400834017</v>
@@ -6542,52 +6542,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V31" t="n">
-        <v>385.9536814748711</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W31" t="n">
-        <v>96.53651143791052</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1290.78269632715</v>
+        <v>1341.378161866804</v>
       </c>
       <c r="C32" t="n">
-        <v>921.8201793867386</v>
+        <v>972.4156449263921</v>
       </c>
       <c r="D32" t="n">
-        <v>563.5544807799881</v>
+        <v>972.4156449263921</v>
       </c>
       <c r="E32" t="n">
-        <v>459.8056573221708</v>
+        <v>972.4156449263921</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256327</v>
+        <v>561.4297401367846</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540048</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V32" t="n">
-        <v>2440.987626628164</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W32" t="n">
-        <v>2440.987626628164</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="X32" t="n">
-        <v>2067.521868367084</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="Y32" t="n">
-        <v>1677.382536391272</v>
+        <v>1727.978001930926</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339194</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593126</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M33" t="n">
         <v>1034.670495654875</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2261.353028937149</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>198.936391944899</v>
+        <v>123.721849281329</v>
       </c>
       <c r="C34" t="n">
-        <v>198.936391944899</v>
+        <v>123.721849281329</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>426.9259428429164</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U34" t="n">
-        <v>426.9259428429164</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V34" t="n">
-        <v>426.9259428429164</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W34" t="n">
-        <v>426.9259428429164</v>
+        <v>123.721849281329</v>
       </c>
       <c r="X34" t="n">
-        <v>198.936391944899</v>
+        <v>123.721849281329</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.936391944899</v>
+        <v>123.721849281329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>705.9401149954622</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="C35" t="n">
-        <v>705.9401149954622</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="D35" t="n">
-        <v>347.6744163887117</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="E35" t="n">
-        <v>48.81975253256327</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F35" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
         <v>412.3079679977591</v>
@@ -6949,7 +6949,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U35" t="n">
-        <v>2187.207932640046</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V35" t="n">
-        <v>1856.145045296475</v>
+        <v>1689.946124035534</v>
       </c>
       <c r="W35" t="n">
-        <v>1856.145045296475</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="X35" t="n">
-        <v>1482.679287035396</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="Y35" t="n">
-        <v>1092.539955059584</v>
+        <v>1337.17746876542</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.0360717494659</v>
+        <v>979.1957906402527</v>
       </c>
       <c r="C36" t="n">
-        <v>755.5830424683389</v>
+        <v>804.7427613591257</v>
       </c>
       <c r="D36" t="n">
-        <v>606.6486328070877</v>
+        <v>655.8083516978744</v>
       </c>
       <c r="E36" t="n">
-        <v>447.4111778016322</v>
+        <v>496.5708966924189</v>
       </c>
       <c r="F36" t="n">
-        <v>300.8766198285172</v>
+        <v>350.0363387193039</v>
       </c>
       <c r="G36" t="n">
-        <v>162.8467322776788</v>
+        <v>212.0064511684655</v>
       </c>
       <c r="H36" t="n">
-        <v>56.24718081742708</v>
+        <v>105.4068997082138</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1817.260283359009</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1563.022926630807</v>
       </c>
       <c r="X36" t="n">
-        <v>1306.011707534488</v>
+        <v>1355.171426425275</v>
       </c>
       <c r="Y36" t="n">
-        <v>1098.251408769534</v>
+        <v>1147.411127660321</v>
       </c>
     </row>
     <row r="37">
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>519.6473048854107</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>519.6473048854107</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>230.468217362803</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V37" t="n">
-        <v>230.468217362803</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W37" t="n">
-        <v>230.468217362803</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X37" t="n">
-        <v>230.468217362803</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y37" t="n">
-        <v>230.468217362803</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1177.300509919041</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.300509919041</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.300509919041</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E38" t="n">
-        <v>1177.300509919041</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F38" t="n">
-        <v>766.3146051294334</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G38" t="n">
-        <v>348.1269392000071</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H38" t="n">
         <v>210.9160074365284</v>
@@ -7174,13 +7174,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7192,7 +7192,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
@@ -7204,22 +7204,22 @@
         <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>2152.282423226541</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U38" t="n">
-        <v>1898.502729238423</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V38" t="n">
-        <v>1567.439841894853</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W38" t="n">
-        <v>1567.439841894853</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X38" t="n">
-        <v>1567.439841894853</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y38" t="n">
-        <v>1177.300509919041</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7286,19 +7286,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1807.754349056116</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1572.602240824373</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.6381696807582</v>
+        <v>231.0001539525012</v>
       </c>
       <c r="C40" t="n">
-        <v>640.6381696807582</v>
+        <v>231.0001539525012</v>
       </c>
       <c r="D40" t="n">
-        <v>490.5215302684225</v>
+        <v>231.0001539525012</v>
       </c>
       <c r="E40" t="n">
-        <v>354.3508524775689</v>
+        <v>231.0001539525012</v>
       </c>
       <c r="F40" t="n">
-        <v>207.4609049796586</v>
+        <v>84.11020645459081</v>
       </c>
       <c r="G40" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256327</v>
@@ -7374,10 +7374,10 @@
         <v>640.6381696807582</v>
       </c>
       <c r="X40" t="n">
-        <v>640.6381696807582</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y40" t="n">
-        <v>640.6381696807582</v>
+        <v>412.6486187827409</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1207.480627192637</v>
+        <v>1161.83622067797</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.480627192637</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D41" t="n">
-        <v>1207.480627192637</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E41" t="n">
-        <v>1207.480627192637</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F41" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256327</v>
@@ -7411,13 +7411,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697315</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U41" t="n">
-        <v>1928.682846512019</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V41" t="n">
-        <v>1597.619959168449</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W41" t="n">
-        <v>1597.619959168449</v>
+        <v>1925.441310914861</v>
       </c>
       <c r="X41" t="n">
-        <v>1597.619959168449</v>
+        <v>1551.975552653782</v>
       </c>
       <c r="Y41" t="n">
-        <v>1207.480627192637</v>
+        <v>1161.83622067797</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>722.1845715439331</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>573.2501618826818</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E42" t="n">
-        <v>414.0127068772263</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F42" t="n">
-        <v>267.4781489041113</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G42" t="n">
-        <v>129.4482613532729</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
@@ -7502,7 +7502,7 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
         <v>1970.07121469245</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C43" t="n">
         <v>48.81975253256327</v>
@@ -7599,22 +7599,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2209996437976</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X43" t="n">
-        <v>123.2314487457803</v>
+        <v>399.4044002907099</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>399.4044002907099</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.604272442979</v>
+        <v>708.3852822876543</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.604272442979</v>
+        <v>708.3852822876543</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.604272442979</v>
+        <v>708.3852822876543</v>
       </c>
       <c r="E44" t="n">
-        <v>824.8160198447347</v>
+        <v>322.59702968941</v>
       </c>
       <c r="F44" t="n">
-        <v>824.8160198447347</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G44" t="n">
-        <v>406.6283539153084</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H44" t="n">
-        <v>77.14104997426841</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>2190.61837996229</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U44" t="n">
-        <v>1936.838685974173</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V44" t="n">
-        <v>1936.838685974173</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W44" t="n">
-        <v>1584.070030704059</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="X44" t="n">
-        <v>1210.604272442979</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="Y44" t="n">
-        <v>1210.604272442979</v>
+        <v>1094.985122351776</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>922.6086434646021</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C45" t="n">
-        <v>748.1556141834751</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D45" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E45" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F45" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G45" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7727,52 +7727,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1298.584279249624</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y45" t="n">
-        <v>1090.82398048467</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>308.8730654381827</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>308.8730654381827</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>161.9831179402724</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>161.9831179402724</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7827,31 +7827,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q46" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>276.5569854093848</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W46" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K12" t="n">
-        <v>74.42821185443506</v>
+        <v>139.2426449029002</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194305</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.85469562617109</v>
+        <v>84.85469562617104</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>84.85469562617104</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>193.2401765302594</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617153</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>245.6177531937813</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>193.2401765302594</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
-        <v>233.1030882730269</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
-        <v>74.42821185443506</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>340.482471640322</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11150,10 +11150,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O42" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>338.6402611112835</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>91.24962183605898</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>12.22964479606699</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>206.8512309729332</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>138.5398105361692</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23439,7 +23439,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>94.09704132915812</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>175.7772311380672</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>20.84106066300959</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>53.35061880807845</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>48.05747717687825</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23706,16 +23706,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>82.90166514134626</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>239.047705331088</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>155.8907072782256</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>242.587450633845</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H18" t="n">
-        <v>91.21612896867103</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,22 +23943,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>144.431577570817</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>170.3453754040614</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>71.09034426107492</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>153.6502176402294</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>61.77024252613145</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24186,13 +24186,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>176.6770743687105</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>174.2563698812594</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.38546312821325</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>338.5417824984718</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>61.77024252613235</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>198.4198312014621</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>71.2679722416534</v>
+        <v>51.23159009225876</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24417,10 +24417,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>36.40308994105357</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>109.3282552328494</v>
       </c>
     </row>
     <row r="27">
@@ -24524,22 +24524,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>25.71133221314665</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>132.3311100301909</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24657,19 +24657,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>33.43753671742246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>292.6769615181015</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>223.5146915507022</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>34.40223089293715</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.4092130247883</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24897,13 +24897,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>178.4700640727434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>279.2190348490226</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>393.189624798508</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24973,7 +24973,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>38.02889906600331</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>71.26797224165318</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25128,10 +25128,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>51.33180196266338</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>86.06425285467486</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>121.2812193192751</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>58.15164275350924</v>
+        <v>9.483521051630376</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>94.09704132915832</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>185.4863975271119</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>190.3536084557857</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>12.22964479606705</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>198.4198312014622</v>
       </c>
     </row>
     <row r="40">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>11.62499163362415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>132.4716636419811</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25678,22 +25678,22 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>140.944484808122</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>56.26857478287411</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>91.21612896867103</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25839,7 +25839,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>212.3480842409426</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.91707410101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>296.3118337113587</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>132.4372078876374</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>141.3464342174086</v>
+        <v>92.88627525581308</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>45.02300916899229</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>42.01973253337212</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>586200.1482046852</v>
+        <v>586200.1482046853</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>586200.1482046852</v>
+        <v>586200.1482046851</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586200.1482046852</v>
+        <v>586200.1482046851</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>586200.1482046852</v>
+        <v>586200.1482046853</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>586200.1482046853</v>
+        <v>586200.1482046852</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>406713.5901862451</v>
+      </c>
+      <c r="F2" t="n">
+        <v>406713.5901862449</v>
+      </c>
+      <c r="G2" t="n">
+        <v>406713.590186245</v>
+      </c>
+      <c r="H2" t="n">
+        <v>406713.5901862449</v>
+      </c>
+      <c r="I2" t="n">
+        <v>406713.5901862449</v>
+      </c>
+      <c r="J2" t="n">
+        <v>406713.5901862449</v>
+      </c>
+      <c r="K2" t="n">
+        <v>406713.590186245</v>
+      </c>
+      <c r="L2" t="n">
         <v>406713.5901862448</v>
-      </c>
-      <c r="F2" t="n">
-        <v>406713.5901862447</v>
-      </c>
-      <c r="G2" t="n">
-        <v>406713.5901862446</v>
-      </c>
-      <c r="H2" t="n">
-        <v>406713.5901862447</v>
-      </c>
-      <c r="I2" t="n">
-        <v>406713.5901862447</v>
-      </c>
-      <c r="J2" t="n">
-        <v>406713.5901862447</v>
-      </c>
-      <c r="K2" t="n">
-        <v>406713.5901862446</v>
-      </c>
-      <c r="L2" t="n">
-        <v>406713.5901862447</v>
       </c>
       <c r="M2" t="n">
         <v>406713.5901862449</v>
@@ -26352,10 +26352,10 @@
         <v>406713.5901862449</v>
       </c>
       <c r="O2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.590186245</v>
       </c>
       <c r="P2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.590186245</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26487,7 +26487,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="H5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="I5" t="n">
         <v>44136.03802033842</v>
@@ -26499,7 +26499,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165767.6741125478</v>
+        <v>165767.6741125475</v>
       </c>
       <c r="C6" t="n">
-        <v>246537.1056440956</v>
+        <v>246537.1056440953</v>
       </c>
       <c r="D6" t="n">
-        <v>246537.1056440956</v>
+        <v>246537.1056440953</v>
       </c>
       <c r="E6" t="n">
-        <v>-58205.74210704234</v>
+        <v>-51933.70999068313</v>
       </c>
       <c r="F6" t="n">
-        <v>311229.5570257377</v>
+        <v>317501.5891420969</v>
       </c>
       <c r="G6" t="n">
-        <v>311229.5570257376</v>
+        <v>317501.589142097</v>
       </c>
       <c r="H6" t="n">
-        <v>311229.5570257377</v>
+        <v>317501.5891420969</v>
       </c>
       <c r="I6" t="n">
-        <v>311229.5570257377</v>
+        <v>317501.5891420969</v>
       </c>
       <c r="J6" t="n">
-        <v>248169.6144266314</v>
+        <v>254441.6465429906</v>
       </c>
       <c r="K6" t="n">
-        <v>311229.5570257376</v>
+        <v>317501.589142097</v>
       </c>
       <c r="L6" t="n">
-        <v>311229.5570257377</v>
+        <v>317501.5891420968</v>
       </c>
       <c r="M6" t="n">
-        <v>219215.3117446448</v>
+        <v>225487.3438610038</v>
       </c>
       <c r="N6" t="n">
-        <v>311229.5570257379</v>
+        <v>317501.5891420969</v>
       </c>
       <c r="O6" t="n">
-        <v>311229.5570257379</v>
+        <v>317501.589142097</v>
       </c>
       <c r="P6" t="n">
-        <v>311229.5570257378</v>
+        <v>317501.589142097</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445108</v>
@@ -26807,7 +26807,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="H4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="I4" t="n">
         <v>610.2469066570409</v>
@@ -26819,7 +26819,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776593</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G2" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>366.4657846212724</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>104.9873304894241</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.07666082776969</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>214.9666412263055</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>127.5914253612829</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,16 +27988,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31770,10 +31770,10 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31782,16 +31782,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S11" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L14" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P14" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517336</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S14" t="n">
-        <v>29.55420813300719</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H15" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858958</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501259</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32244,10 +32244,10 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32256,16 +32256,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I18" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K11" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L11" t="n">
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64100594280298</v>
+        <v>113.4554389912682</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K14" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L14" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P14" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35743,7 +35743,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q15" t="n">
         <v>33.45228430891411</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O16" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K17" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L17" t="n">
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P17" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35980,7 +35980,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q18" t="n">
         <v>33.45228430891411</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L19" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
@@ -36691,7 +36691,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
         <v>158.6748764185921</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>207.3158823613949</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>48.64100594280298</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>374.1740901080621</v>
       </c>
       <c r="N36" t="n">
         <v>528.4798964831782</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q38" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471535</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37870,10 +37870,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O42" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
         <v>316.9982669508155</v>
@@ -38022,7 +38022,7 @@
         <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
-        <v>386.5629597537828</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M44" t="n">
         <v>446.9000637909531</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
